--- a/05ReadLabelSaveinExcel/annLabel.xlsx
+++ b/05ReadLabelSaveinExcel/annLabel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>案例</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -233,6 +233,14 @@
   </si>
   <si>
     <t>社会风气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决办法</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -414,115 +422,115 @@
   </cellStyleXfs>
   <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -805,114 +813,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO4"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AQ4" sqref="AQ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:41" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:43" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="3" t="s">
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="3" t="s">
+      <c r="H1" s="35"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="7" t="s">
+      <c r="K1" s="35"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="7" t="s">
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="7" t="s">
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="W1" s="9"/>
-      <c r="X1" s="10" t="s">
+      <c r="X1" s="25"/>
+      <c r="Y1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="10" t="s">
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="AG1" s="11"/>
-      <c r="AH1" s="11"/>
-      <c r="AI1" s="11"/>
-      <c r="AJ1" s="11"/>
-      <c r="AK1" s="11"/>
-      <c r="AL1" s="12"/>
-      <c r="AM1" s="10" t="s">
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="26"/>
+      <c r="AM1" s="13"/>
+      <c r="AN1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="AN1" s="11"/>
-      <c r="AO1" s="13" t="s">
+      <c r="AO1" s="26"/>
+      <c r="AP1" s="27" t="s">
         <v>10</v>
       </c>
+      <c r="AQ1" s="27" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="2" spans="1:41" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:43" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="20" t="s">
         <v>22</v>
       </c>
       <c r="M2" s="18" t="s">
@@ -922,304 +934,318 @@
         <v>24</v>
       </c>
       <c r="O2" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="P2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="Q2" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="18" t="s">
+      <c r="R2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="18" t="s">
+      <c r="S2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="S2" s="18" t="s">
+      <c r="T2" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="T2" s="18" t="s">
+      <c r="U2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="U2" s="18" t="s">
+      <c r="V2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="V2" s="18" t="s">
+      <c r="W2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="18" t="s">
+      <c r="X2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="X2" s="19" t="s">
+      <c r="Y2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="Y2" s="19" t="s">
+      <c r="Z2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="Z2" s="20" t="s">
+      <c r="AA2" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="AA2" s="19" t="s">
+      <c r="AB2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AB2" s="19" t="s">
+      <c r="AC2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AC2" s="19" t="s">
+      <c r="AD2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AD2" s="19" t="s">
+      <c r="AE2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AE2" s="19" t="s">
+      <c r="AF2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AF2" s="21" t="s">
+      <c r="AG2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="10" t="s">
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="11"/>
+      <c r="AJ2" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="AJ2" s="12"/>
-      <c r="AK2" s="19" t="s">
+      <c r="AK2" s="13"/>
+      <c r="AL2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AL2" s="24" t="s">
+      <c r="AM2" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="AM2" s="19" t="s">
+      <c r="AN2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="AN2" s="25" t="s">
+      <c r="AO2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AO2" s="26"/>
+      <c r="AP2" s="28"/>
+      <c r="AQ2" s="28"/>
     </row>
-    <row r="3" spans="1:41" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="33" t="s">
+    <row r="3" spans="1:43" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AG3" s="33" t="s">
+      <c r="AH3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AH3" s="33" t="s">
+      <c r="AI3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AI3" s="34" t="s">
+      <c r="AJ3" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="AJ3" s="34" t="s">
+      <c r="AK3" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="AK3" s="31"/>
-      <c r="AL3" s="35"/>
-      <c r="AM3" s="31"/>
-      <c r="AN3" s="34" t="s">
+      <c r="AL3" s="8"/>
+      <c r="AM3" s="15"/>
+      <c r="AN3" s="8"/>
+      <c r="AO3" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="AO3" s="36"/>
+      <c r="AP3" s="29"/>
+      <c r="AQ3" s="29"/>
     </row>
-    <row r="4" spans="1:41" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="37">
+    <row r="4" spans="1:43" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
         <v>0</v>
       </c>
-      <c r="B4" s="37">
+      <c r="B4" s="6">
         <v>1</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="6">
         <v>2</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="6">
         <v>3</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="6">
         <v>4</v>
       </c>
-      <c r="F4" s="37">
+      <c r="F4" s="6">
         <v>5</v>
       </c>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37">
+      <c r="G4" s="6"/>
+      <c r="H4" s="6">
         <v>7</v>
       </c>
-      <c r="I4" s="37">
+      <c r="I4" s="6">
         <v>8</v>
       </c>
-      <c r="J4" s="37">
+      <c r="J4" s="6">
         <v>9</v>
       </c>
-      <c r="K4" s="37">
+      <c r="K4" s="6">
         <v>10</v>
       </c>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37">
+      <c r="L4" s="6"/>
+      <c r="M4" s="6">
         <v>12</v>
       </c>
-      <c r="N4" s="37">
+      <c r="N4" s="6">
         <v>13</v>
       </c>
-      <c r="O4" s="37">
+      <c r="O4" s="6">
         <v>14</v>
       </c>
-      <c r="P4" s="37">
+      <c r="P4" s="6">
         <v>15</v>
       </c>
-      <c r="Q4" s="37">
+      <c r="Q4" s="6">
         <v>16</v>
       </c>
-      <c r="R4" s="37">
+      <c r="R4" s="6">
         <v>17</v>
       </c>
-      <c r="S4" s="37">
+      <c r="S4" s="6">
         <v>18</v>
       </c>
-      <c r="T4" s="37">
+      <c r="T4" s="6">
         <v>19</v>
       </c>
-      <c r="U4" s="37">
+      <c r="U4" s="6">
         <v>20</v>
       </c>
-      <c r="V4" s="37">
+      <c r="V4" s="6">
         <v>21</v>
       </c>
-      <c r="W4" s="37">
+      <c r="W4" s="6">
         <v>22</v>
       </c>
-      <c r="X4" s="37">
+      <c r="X4" s="6">
         <v>23</v>
       </c>
-      <c r="Y4" s="37">
+      <c r="Y4" s="6">
         <v>24</v>
       </c>
-      <c r="Z4" s="37">
+      <c r="Z4" s="6">
         <v>25</v>
       </c>
-      <c r="AA4" s="37">
+      <c r="AA4" s="6">
         <v>26</v>
       </c>
-      <c r="AB4" s="37">
+      <c r="AB4" s="6">
         <v>27</v>
       </c>
-      <c r="AC4" s="37">
+      <c r="AC4" s="6">
         <v>28</v>
       </c>
-      <c r="AD4" s="37">
+      <c r="AD4" s="6">
         <v>29</v>
       </c>
-      <c r="AE4" s="37">
+      <c r="AE4" s="6">
         <v>30</v>
       </c>
-      <c r="AF4" s="37">
+      <c r="AF4" s="6">
         <v>31</v>
       </c>
-      <c r="AG4" s="37">
+      <c r="AG4" s="6">
         <v>32</v>
       </c>
-      <c r="AH4" s="37">
+      <c r="AH4" s="6">
         <v>33</v>
       </c>
-      <c r="AI4" s="37">
+      <c r="AI4" s="6">
         <v>34</v>
       </c>
-      <c r="AJ4" s="37">
+      <c r="AJ4" s="6">
         <v>35</v>
       </c>
-      <c r="AK4" s="37">
+      <c r="AK4" s="6">
         <v>36</v>
       </c>
-      <c r="AL4" s="37">
+      <c r="AL4" s="6">
+        <v>37</v>
+      </c>
+      <c r="AM4" s="6">
         <v>38</v>
       </c>
-      <c r="AM4" s="37">
+      <c r="AN4" s="6">
         <v>39</v>
       </c>
-      <c r="AN4" s="37">
+      <c r="AO4" s="6">
         <v>40</v>
       </c>
-      <c r="AO4" s="37">
+      <c r="AP4" s="6">
+        <v>41</v>
+      </c>
+      <c r="AQ4" s="6">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="47">
-    <mergeCell ref="AM2:AM3"/>
+  <mergeCells count="49">
+    <mergeCell ref="R1:V1"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="AQ1:AQ3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AF1"/>
+    <mergeCell ref="AG1:AM1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AP1:AP3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="W2:W3"/>
     <mergeCell ref="X2:X3"/>
     <mergeCell ref="Y2:Y3"/>
     <mergeCell ref="Z2:Z3"/>
     <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="AB2:AB3"/>
     <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:AE1"/>
-    <mergeCell ref="AF1:AL1"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="AO1:AO3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="AN2:AN3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="AM2:AM3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
